--- a/Social/crime/new-probation-cases-by-age-group (2002-2017).xlsx
+++ b/Social/crime/new-probation-cases-by-age-group (2002-2017).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\github stuff\BAVP\Social\crime\cleaned data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\github stuff\BAVP\Social\crime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{552BBE21-047A-42B0-9BF6-3F84CEA174F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F17992-F01F-48AA-9002-F62C6B5D6B78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{A703F2C2-F130-4720-B10C-5688B490B4D1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>years</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>22 years and above</t>
-  </si>
-  <si>
-    <t>total</t>
   </si>
 </sst>
 </file>
@@ -403,15 +400,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922CC1ED-62BE-4AE0-92BD-992E47A93D54}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G1" sqref="G1:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,11 +427,8 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2002</v>
       </c>
@@ -453,11 +447,8 @@
       <c r="F2">
         <v>4</v>
       </c>
-      <c r="G2">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2003</v>
       </c>
@@ -476,11 +467,8 @@
       <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2004</v>
       </c>
@@ -499,11 +487,8 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2005</v>
       </c>
@@ -522,11 +507,8 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2006</v>
       </c>
@@ -545,11 +527,8 @@
       <c r="F6">
         <v>36</v>
       </c>
-      <c r="G6">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2007</v>
       </c>
@@ -568,11 +547,8 @@
       <c r="F7">
         <v>55</v>
       </c>
-      <c r="G7">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -591,11 +567,8 @@
       <c r="F8">
         <v>50</v>
       </c>
-      <c r="G8">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -614,11 +587,8 @@
       <c r="F9">
         <v>51</v>
       </c>
-      <c r="G9">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2010</v>
       </c>
@@ -637,11 +607,8 @@
       <c r="F10">
         <v>101</v>
       </c>
-      <c r="G10">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -660,11 +627,8 @@
       <c r="F11">
         <v>128</v>
       </c>
-      <c r="G11">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2012</v>
       </c>
@@ -683,11 +647,8 @@
       <c r="F12">
         <v>125</v>
       </c>
-      <c r="G12">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -706,11 +667,8 @@
       <c r="F13">
         <v>67</v>
       </c>
-      <c r="G13">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -729,11 +687,8 @@
       <c r="F14">
         <v>68</v>
       </c>
-      <c r="G14">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -752,11 +707,8 @@
       <c r="F15">
         <v>67</v>
       </c>
-      <c r="G15">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -775,11 +727,8 @@
       <c r="F16">
         <v>40</v>
       </c>
-      <c r="G16">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2017</v>
       </c>
@@ -797,9 +746,6 @@
       </c>
       <c r="F17">
         <v>27</v>
-      </c>
-      <c r="G17">
-        <v>451</v>
       </c>
     </row>
   </sheetData>
